--- a/Advanced/igawa/dentaku/レビュー記録表-igawa.xlsx
+++ b/Advanced/igawa/dentaku/レビュー記録表-igawa.xlsx
@@ -1,288 +1,458 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="26895" windowHeight="13170"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="記録表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>レビュー記録表</t>
-    <rPh sb="4" eb="6">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レビュー対象</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>指摘内容</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>指摘者</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>指摘日</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>修正内容</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応者</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応日</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>確認者</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>確認日</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>電卓アプリ</t>
-    <rPh sb="0" eb="2">
-      <t>デンタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>初期表示の状態が設計と異なる。</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>原因・調査内容</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>設計確認漏れ。</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>設計の通りに修正。</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>太郎</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>花子</t>
-    <rPh sb="0" eb="2">
-      <t>ハナコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>例</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面のレイアウトが設計書と異なる。</t>
+  </si>
+  <si>
+    <t>佐藤歩</t>
+  </si>
+  <si>
+    <t>「1」のボタンを16回以押下すると0で表示される。</t>
+  </si>
+  <si>
+    <t>0除算をした時のメッセージが設計書と異なる。</t>
+  </si>
+  <si>
+    <t>「=」を押下したときに計算経過エリアがクリアされない。</t>
+  </si>
+  <si>
+    <t>計算結果エリアに5桁以上入力した状態で「DEL」を押すと3桁以上数字があるのに「,」が消えてしまう</t>
+  </si>
+  <si>
+    <t>演算子を何回も入力できてしまう
+計算するときはどの演算子を使用しているのか？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
-    <font>
-      <sz val="11"/>
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
+  </numFmts>
+  <fonts count="27">
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+    </font>
+    <font>
+      <sz val="6.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="メイリオ"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.0"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="0"/>
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="9.0"/>
+      <name val="メイリオ"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="15.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -293,7 +463,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -304,7 +476,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -313,7 +487,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -324,7 +500,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -333,7 +511,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -342,7 +522,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -353,7 +535,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -362,7 +546,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -373,7 +559,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -388,7 +576,9 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -403,7 +593,9 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -418,7 +610,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -429,7 +623,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -440,105 +636,448 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 強調1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 強調2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 強調3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 強調4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 強調5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 強調6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 強調1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 強調2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 強調3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 強調4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 強調5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 強調6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 強調1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 強調2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 強調3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 強調4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 強調5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 強調6" xfId="47" builtinId="52"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="コメント" xfId="8" builtinId="10"/>
+    <cellStyle name="セルの確認" xfId="18" builtinId="23"/>
+    <cellStyle name="タイトル" xfId="10" builtinId="15"/>
+    <cellStyle name="タイトル 1" xfId="11" builtinId="16"/>
+    <cellStyle name="タイトル 2" xfId="12" builtinId="17"/>
+    <cellStyle name="タイトル 3" xfId="13" builtinId="18"/>
+    <cellStyle name="タイトル 4" xfId="14" builtinId="19"/>
+    <cellStyle name="パーセント" xfId="3" builtinId="5"/>
+    <cellStyle name="リンクセル" xfId="19" builtinId="24"/>
+    <cellStyle name="入力" xfId="15" builtinId="20"/>
+    <cellStyle name="出力" xfId="16" builtinId="21"/>
+    <cellStyle name="合計" xfId="20" builtinId="25"/>
+    <cellStyle name="強調1" xfId="24" builtinId="29"/>
+    <cellStyle name="強調2" xfId="28" builtinId="33"/>
+    <cellStyle name="強調3" xfId="32" builtinId="37"/>
+    <cellStyle name="強調4" xfId="36" builtinId="41"/>
+    <cellStyle name="強調5" xfId="40" builtinId="45"/>
+    <cellStyle name="強調6" xfId="44" builtinId="49"/>
+    <cellStyle name="悪い" xfId="22" builtinId="27"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="3"/>
+    <cellStyle name="桁区切り [0]" xfId="4" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="23" builtinId="28"/>
+    <cellStyle name="良い" xfId="21" builtinId="26"/>
+    <cellStyle name="計算" xfId="17" builtinId="22"/>
+    <cellStyle name="説明テキスト" xfId="48" builtinId="53"/>
+    <cellStyle name="警告文" xfId="9" builtinId="11"/>
+    <cellStyle name="通貨" xfId="2" builtinId="4"/>
+    <cellStyle name="通貨[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -831,24 +1370,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="5.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="30.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="12.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="6" style="1" width="30.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="1" width="8.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="1" width="8.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="16384" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25">
+    <row r="1" spans="1:10" ht="28.800000">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -862,7 +1401,7 @@
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="6.75" customHeight="1">
+    <row r="2" spans="1:10" ht="6.750000" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -874,7 +1413,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+    <row r="3" spans="1:10" ht="19.500000" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -938,7 +1477,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+    <row r="8" spans="1:10" ht="19.500000" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
@@ -970,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="29.25" customHeight="1">
+    <row r="9" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
@@ -1002,11 +1541,19 @@
         <v>43107</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+    <row r="10" spans="1:10" ht="29.250000" customHeight="1">
+      <c r="A10" s="28">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="29">
+        <v>43114</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -1014,11 +1561,19 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+    <row r="11" spans="1:10" ht="29.250000" customHeight="1">
+      <c r="A11" s="28">
+        <v>2</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="29">
+        <v>43114</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -1026,11 +1581,19 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+    <row r="12" spans="1:10" ht="29.250000" customHeight="1">
+      <c r="A12" s="28">
+        <v>3</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="29">
+        <v>43114</v>
+      </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1038,11 +1601,19 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+    <row r="13" spans="1:10" ht="29.250000" customHeight="1">
+      <c r="A13" s="28">
+        <v>4</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="29">
+        <v>43114</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -1050,11 +1621,19 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+    <row r="14" spans="1:10" ht="29.250000" customHeight="1">
+      <c r="A14" s="28">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="29">
+        <v>43114</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -1062,11 +1641,19 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+    <row r="15" spans="1:10" ht="29.250000" customHeight="1">
+      <c r="A15" s="28">
+        <v>6</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="29">
+        <v>43114</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -1074,7 +1661,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" ht="29.25" customHeight="1">
+    <row r="16" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -1086,7 +1673,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" ht="29.25" customHeight="1">
+    <row r="17" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -1098,7 +1685,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" ht="29.25" customHeight="1">
+    <row r="18" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -1110,7 +1697,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1">
+    <row r="19" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -1122,7 +1709,7 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" ht="29.25" customHeight="1">
+    <row r="20" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -1134,7 +1721,7 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10" ht="29.25" customHeight="1">
+    <row r="21" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1146,7 +1733,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" ht="29.25" customHeight="1">
+    <row r="22" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -1158,7 +1745,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" ht="29.25" customHeight="1">
+    <row r="23" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -1170,7 +1757,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" ht="29.25" customHeight="1">
+    <row r="24" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -1182,7 +1769,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:10" ht="29.25" customHeight="1">
+    <row r="25" spans="1:10" ht="29.250000" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -1198,8 +1785,8 @@
   <mergeCells count="1">
     <mergeCell ref="A4:J7"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>